--- a/Config/testData.xlsx
+++ b/Config/testData.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="i" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -40,17 +40,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Years</t>
+    <t>Counter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,63 +400,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="A14" sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2020</v>
-      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
